--- a/Prac 2/Data.xlsx
+++ b/Prac 2/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive - University of Cape Town\Documents\Third Year\Second Semester\EEE3096S - Embedded Systems 2\Prac 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/ktsmic005_myuct_ac_za/Documents/Documents/Third Year/Second Semester/EEE3096S - Embedded Systems 2/mypracs/Prac 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{B90E35FA-CDC1-4D6F-8E1F-7B98327C7BEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{04D52470-5C84-4A6E-BF45-909B03268957}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{B90E35FA-CDC1-4D6F-8E1F-7B98327C7BEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{2256DAE5-0CE1-4129-978D-C0DE915ABED9}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{80C866A9-97CD-49C9-A7E6-67DD07F6915A}"/>
+    <workbookView xWindow="4404" yWindow="1308" windowWidth="17280" windowHeight="8964" xr2:uid="{80C866A9-97CD-49C9-A7E6-67DD07F6915A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>First run</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>ms</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>Mili</t>
   </si>
 </sst>
 </file>
@@ -498,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF58646-11A8-43E4-BBFB-B7E57BE286DE}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,6 +817,42 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E15" s="5"/>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>2.7729680000000001</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>2.6607810000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>2.639688</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>3.133073</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>2.6481249999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>2.654687</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1021,18 +1063,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1055,26 +1097,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5A66934-A72F-4C77-9898-30C91D0F8C58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E77E313-1051-4722-9B8F-FFA9FE99D748}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="d50f3d3b-a00a-4de0-91b6-de85032333c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="dbb7807b-0bfa-4867-be99-c973128321c8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E77E313-1051-4722-9B8F-FFA9FE99D748}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5A66934-A72F-4C77-9898-30C91D0F8C58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="dbb7807b-0bfa-4867-be99-c973128321c8"/>
+    <ds:schemaRef ds:uri="d50f3d3b-a00a-4de0-91b6-de85032333c3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>